--- a/SOURCE_TEST/sample_import_file.xlsx
+++ b/SOURCE_TEST/sample_import_file.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KT\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KT\Documents\student_manager\SOURCE_TEST\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -388,7 +388,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -424,10 +424,10 @@
         <v>10</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E2">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -440,6 +440,9 @@
       <c r="C3">
         <v>10</v>
       </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
       <c r="E3">
         <v>1</v>
       </c>
@@ -470,6 +473,9 @@
       </c>
       <c r="C5">
         <v>8</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
       </c>
       <c r="E5">
         <v>10</v>
